--- a/test_case_manual.xlsx
+++ b/test_case_manual.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dangh\Desktop\Testing_practice\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://o2fitcom-my.sharepoint.com/personal/haibinh_dang_amaris_com/Documents/Documents/GitHub/Amaris_QA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC3497E9-E858-4B90-9D0D-EDD93EB27F94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{CC3497E9-E858-4B90-9D0D-EDD93EB27F94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{823BF04A-25C6-40C1-8F5A-E2619A3AA756}"/>
   <bookViews>
-    <workbookView xWindow="30240" yWindow="-3180" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>Test case ID</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="77">
   <si>
     <t>Test step</t>
   </si>
@@ -55,19 +52,264 @@
   </si>
   <si>
     <t>Test page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Login </t>
+  </si>
+  <si>
+    <t>no input and submit</t>
+  </si>
+  <si>
+    <t>go to login page</t>
+  </si>
+  <si>
+    <t>click the submit button</t>
+  </si>
+  <si>
+    <t>Message said login failed</t>
+  </si>
+  <si>
+    <t>Error: Username is required.</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>input only username</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>input username</t>
+  </si>
+  <si>
+    <t>Error: Password is required.</t>
+  </si>
+  <si>
+    <t>input only password</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>input password</t>
+  </si>
+  <si>
+    <t>input wrong account</t>
+  </si>
+  <si>
+    <t>input wrong username</t>
+  </si>
+  <si>
+    <t>input wrong password</t>
+  </si>
+  <si>
+    <t>Error: The password you entered
+ for the username (username) is incorrect.
+ Lost your password?</t>
+  </si>
+  <si>
+    <t>username (failed)</t>
+  </si>
+  <si>
+    <t>password (failed)</t>
+  </si>
+  <si>
+    <t>go to recover password page</t>
+  </si>
+  <si>
+    <t>click the link to go to the recover password page</t>
+  </si>
+  <si>
+    <t>go to the recover password page successfully</t>
+  </si>
+  <si>
+    <t>login page with a valid account</t>
+  </si>
+  <si>
+    <t>username (valid)</t>
+  </si>
+  <si>
+    <t>password (valid)</t>
+  </si>
+  <si>
+    <t>input valid username</t>
+  </si>
+  <si>
+    <t>input valid password</t>
+  </si>
+  <si>
+    <t>click submit button</t>
+  </si>
+  <si>
+    <t>the browser show my account page</t>
+  </si>
+  <si>
+    <t>the browser show my account page and/or return a login successful message</t>
+  </si>
+  <si>
+    <t>Register</t>
+  </si>
+  <si>
+    <t>email (valid)</t>
+  </si>
+  <si>
+    <t>input valid email</t>
+  </si>
+  <si>
+    <t>click the register button</t>
+  </si>
+  <si>
+    <t>successfully registered account message and/or go to my account page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">go to my account page </t>
+  </si>
+  <si>
+    <t>win 11 - chrome - 130.0.6723.117</t>
+  </si>
+  <si>
+    <t>Register an existing account</t>
+  </si>
+  <si>
+    <t>Register an account</t>
+  </si>
+  <si>
+    <t xml:space="preserve">registered email (valid) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">registered password (valid) </t>
+  </si>
+  <si>
+    <t>input registered email</t>
+  </si>
+  <si>
+    <t>input registered password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">return error message </t>
+  </si>
+  <si>
+    <r>
+      <t>Error:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF515151"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> An account is already registered with your email address. Please login.</t>
+    </r>
+  </si>
+  <si>
+    <t>Input only password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Register </t>
+  </si>
+  <si>
+    <t>go to register page</t>
+  </si>
+  <si>
+    <t>password (condition passed)</t>
+  </si>
+  <si>
+    <r>
+      <t>Error:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF515151"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> Please provide a valid email address.</t>
+    </r>
+  </si>
+  <si>
+    <t>click register button</t>
+  </si>
+  <si>
+    <t>Input only email</t>
+  </si>
+  <si>
+    <t>input only email (valid)</t>
+  </si>
+  <si>
+    <t>return error message</t>
+  </si>
+  <si>
+    <t>Page block the register button</t>
+  </si>
+  <si>
+    <t>Input non-valid email</t>
+  </si>
+  <si>
+    <t>email (invalid)</t>
+  </si>
+  <si>
+    <t>input only email (invalid)</t>
+  </si>
+  <si>
+    <t>Case 1: without @
+Page block register button</t>
+  </si>
+  <si>
+    <t>Case 2: with @ but no value behind @
+Error message say the email is incomplete</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Case 3: with @ but not a valid email 
+Error: Please provide a valid email address.
+</t>
+  </si>
+  <si>
+    <t>Input failed condition password</t>
+  </si>
+  <si>
+    <t>Test case name</t>
+  </si>
+  <si>
+    <t>password (invalid)</t>
+  </si>
+  <si>
+    <t>input invalid password</t>
+  </si>
+  <si>
+    <t>Return message inform the password is too weak and block the register button</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF515151"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF515151"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -78,7 +320,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -86,12 +328,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color rgb="FFED1E24"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -372,59 +629,544 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.77734375" customWidth="1"/>
-    <col min="3" max="3" width="13.44140625" customWidth="1"/>
-    <col min="4" max="4" width="17.109375" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" customWidth="1"/>
-    <col min="6" max="6" width="18.6640625" customWidth="1"/>
-    <col min="7" max="7" width="17.33203125" customWidth="1"/>
-    <col min="8" max="8" width="13.5546875" customWidth="1"/>
-    <col min="9" max="9" width="15" customWidth="1"/>
-    <col min="10" max="10" width="20.88671875" customWidth="1"/>
+    <col min="1" max="1" width="25" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.81640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.7265625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.36328125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.54296875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15" style="1" customWidth="1"/>
+    <col min="10" max="10" width="20.90625" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="D3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="D5" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="D6" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="D8" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="58" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="D12" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="D13" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="D15" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D18" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D19" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D22" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D23" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="C25" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D26" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D27" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="44" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D29" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D30" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D32" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D33" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A34" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="C35" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="D36" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A37" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="C38" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D39" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D40" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>